--- a/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 3,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 5,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,38; 11,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 10,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 11,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 6,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 8,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,05; 27,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,23; 12,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; 22,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,42; 35,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 34,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,23; 38,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,18; 28,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 21,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 30,26</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,18; 10,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 2,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 17,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 8,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 3,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 10,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,84; 67,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 36,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 47,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,19; 48,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 12,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 83,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,62; 48,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 18,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 59,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 8,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 4,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 3,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 2,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 6,52</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,91; 12,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,51; 36,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 65,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,46; 23,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,46; 17,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,82; 33,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; 12,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,21; 16,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 39,97</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 5,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 3,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 8,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 2,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 11,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 6,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 7,09</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,51; 31,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 12,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 19,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,91; 33,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 9,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 42,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,64; 29,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 8,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 32,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,93</t>
+          <t>-4,65; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,1</t>
+          <t>-1,29; 8,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,85</t>
+          <t>-6,43; 3,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,01</t>
+          <t>3,6; 11,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,49</t>
+          <t>1,15; 9,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,91</t>
+          <t>1,47; 9,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,23</t>
+          <t>1,09; 7,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,12</t>
+          <t>1,47; 7,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 8,53</t>
+          <t>-0,24; 5,87</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 27,47</t>
+          <t>-8,74; 8,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 12,45</t>
+          <t>-2,47; 16,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 22,87</t>
+          <t>-12,08; 6,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 35,51</t>
+          <t>6,31; 21,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 34,91</t>
+          <t>2,04; 17,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 38,57</t>
+          <t>2,56; 17,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 28,73</t>
+          <t>1,99; 14,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 21,32</t>
+          <t>2,7; 14,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 30,26</t>
+          <t>-0,43; 11,25</t>
         </is>
       </c>
     </row>
@@ -853,42 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,91</t>
+          <t>3,09; 9,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,83</t>
+          <t>2,78; 9,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,17</t>
+          <t>-5,53; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,35</t>
+          <t>0,75; 7,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,54</t>
+          <t>-4,33; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 17,61</t>
+          <t>-8,16; 5,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,69</t>
+          <t>2,95; 7,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,21</t>
+          <t>0,09; 4,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,71</t>
+          <t>-5,31; 2,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>-5,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 67,1</t>
+          <t>7,88; 27,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 36,7</t>
+          <t>6,9; 25,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 47,5</t>
+          <t>-13,79; 5,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 48,55</t>
+          <t>1,39; 15,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 12,05</t>
+          <t>-8,17; 4,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 83,08</t>
+          <t>-15,37; 10,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 48,73</t>
+          <t>6,34; 18,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 18,14</t>
+          <t>0,23; 11,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 59,06</t>
+          <t>-11,69; 6,21</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,74</t>
+          <t>-3,09; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,76</t>
+          <t>-2,64; 10,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,64</t>
+          <t>-5,32; 6,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 4,69</t>
+          <t>-10,21; 3,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,44</t>
+          <t>-10,63; 2,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,3</t>
+          <t>-11,61; -0,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,17</t>
+          <t>-4,5; 4,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,8</t>
+          <t>-4,45; 4,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,52</t>
+          <t>-5,96; 2,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>-4,52%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 12,55</t>
+          <t>-7,6; 28,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 36,38</t>
+          <t>-6,53; 29,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 65,82</t>
+          <t>-12,52; 19,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 23,47</t>
+          <t>-18,42; 6,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 17,94</t>
+          <t>-18,81; 4,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 33,34</t>
+          <t>-20,78; -0,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 12,87</t>
+          <t>-9,34; 11,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 16,18</t>
+          <t>-9,67; 9,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 39,97</t>
+          <t>-12,48; 5,53</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-2,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,55</t>
+          <t>1,08; 6,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,1</t>
+          <t>1,22; 6,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,44</t>
+          <t>-5,84; -0,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,47</t>
+          <t>2,21; 7,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,36</t>
+          <t>-2,47; 2,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,43</t>
+          <t>-5,53; 2,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,42</t>
+          <t>2,33; 5,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,77</t>
+          <t>0,18; 3,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,09</t>
+          <t>-4,77; 0,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>-5,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 31,54</t>
+          <t>2,68; 14,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 12,03</t>
+          <t>2,78; 14,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 19,28</t>
+          <t>-13,48; -0,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,91; 33,19</t>
+          <t>3,95; 13,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 9,33</t>
+          <t>-4,59; 4,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 42,28</t>
+          <t>-10,26; 5,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,64; 29,09</t>
+          <t>4,75; 12,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,15</t>
+          <t>0,35; 7,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 32,13</t>
+          <t>-9,84; 1,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,34</t>
+          <t>-2,68; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,14</t>
+          <t>-0,9; 8,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,35</t>
+          <t>-5,76; 4,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,58</t>
+          <t>7,29; 14,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,64</t>
+          <t>1,48; 9,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,27</t>
+          <t>2,18; 9,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,42</t>
+          <t>4,19; 10,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,67</t>
+          <t>1,87; 8,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,87</t>
+          <t>0,22; 6,48</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 8,7</t>
+          <t>-4,92; 12,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 16,36</t>
+          <t>-1,73; 17,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 6,82</t>
+          <t>-10,53; 8,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 21,74</t>
+          <t>12,6; 27,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 17,96</t>
+          <t>2,55; 17,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 17,4</t>
+          <t>3,74; 17,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 14,09</t>
+          <t>7,5; 19,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 14,63</t>
+          <t>3,31; 15,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 11,25</t>
+          <t>0,33; 12,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,95</t>
+          <t>5,1; 11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,11</t>
+          <t>3,95; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,89</t>
+          <t>-15,77; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,91</t>
+          <t>3,32; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,39</t>
+          <t>-3,71; 2,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 5,2</t>
+          <t>-6,66; 13,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,95</t>
+          <t>4,89; 9,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,95</t>
+          <t>1,07; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 2,64</t>
+          <t>-8,61; 5,85</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 27,79</t>
+          <t>12,17; 32,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 25,3</t>
+          <t>9,66; 27,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 5,26</t>
+          <t>-39,43; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 15,94</t>
+          <t>6,02; 20,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,89</t>
+          <t>-6,86; 5,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 10,76</t>
+          <t>-12,33; 27,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 18,09</t>
+          <t>10,46; 22,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,52</t>
+          <t>2,29; 13,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 6,21</t>
+          <t>-18,74; 13,27</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,94</t>
+          <t>-0,69; 12,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 10,24</t>
+          <t>-0,91; 12,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,97</t>
+          <t>-4,55; 7,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 3,11</t>
+          <t>-5,25; 8,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 2,24</t>
+          <t>-8,76; 3,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -0,21</t>
+          <t>-11,1; 0,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,85</t>
+          <t>-1,01; 8,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,11</t>
+          <t>-2,17; 6,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,38</t>
+          <t>-4,99; 3,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,79%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 28,14</t>
+          <t>-1,67; 34,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 29,21</t>
+          <t>-2,27; 33,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 19,43</t>
+          <t>-10,56; 22,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 6,42</t>
+          <t>-9,37; 16,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 4,53</t>
+          <t>-15,6; 7,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -0,51</t>
+          <t>-19,49; 1,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 11,34</t>
+          <t>-2,13; 19,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 9,52</t>
+          <t>-4,57; 14,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 5,53</t>
+          <t>-10,72; 7,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-2,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,13</t>
+          <t>3,23; 8,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,1</t>
+          <t>2,28; 7,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -0,29</t>
+          <t>-13,78; -0,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,02</t>
+          <t>5,13; 10,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,35</t>
+          <t>-1,8; 2,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,77</t>
+          <t>-4,15; 9,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,97</t>
+          <t>4,88; 8,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,53</t>
+          <t>1,03; 4,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,71</t>
+          <t>-7,07; 2,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-4,74%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 14,95</t>
+          <t>7,17; 19,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 14,86</t>
+          <t>5,16; 17,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -0,69</t>
+          <t>-31,4; -1,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,42</t>
+          <t>9,2; 18,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,56</t>
+          <t>-3,29; 5,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 5,84</t>
+          <t>-7,63; 18,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,74</t>
+          <t>9,69; 17,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,53</t>
+          <t>2,11; 9,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,54</t>
+          <t>-14,42; 5,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 6,28</t>
+          <t>-2,45; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,7</t>
+          <t>-0,89; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,13</t>
+          <t>-5,6; 4,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,98</t>
+          <t>7,44; 14,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,68</t>
+          <t>1,84; 9,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 9,75</t>
+          <t>1,96; 9,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,27</t>
+          <t>4,47; 10,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,1</t>
+          <t>1,69; 8,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,48</t>
+          <t>0,44; 6,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 12,45</t>
+          <t>-4,54; 13,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 17,28</t>
+          <t>-1,61; 18,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 8,33</t>
+          <t>-10,56; 9,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,6; 27,93</t>
+          <t>12,91; 27,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 17,78</t>
+          <t>3,16; 17,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,94</t>
+          <t>3,38; 17,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,49</t>
+          <t>8,04; 19,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 15,15</t>
+          <t>3,06; 15,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 12,19</t>
+          <t>0,76; 12,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,98</t>
+          <t>5,17; 11,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,41</t>
+          <t>4,0; 10,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 1,77</t>
+          <t>-14,61; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,15</t>
+          <t>3,35; 10,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,8</t>
+          <t>-3,59; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 13,8</t>
+          <t>-6,85; 13,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,8</t>
+          <t>5,19; 9,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,86</t>
+          <t>1,15; 5,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,85</t>
+          <t>-8,81; 5,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 32,24</t>
+          <t>12,71; 31,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 27,96</t>
+          <t>9,9; 28,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 4,65</t>
+          <t>-36,07; 4,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 20,01</t>
+          <t>6,28; 19,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 5,5</t>
+          <t>-6,57; 5,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 27,06</t>
+          <t>-12,88; 25,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 22,1</t>
+          <t>11,07; 22,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,1</t>
+          <t>2,46; 13,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 13,27</t>
+          <t>-19,23; 13,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 12,24</t>
+          <t>-0,52; 12,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 12,21</t>
+          <t>-0,37; 12,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 7,81</t>
+          <t>-3,85; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 8,0</t>
+          <t>-4,92; 8,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 3,66</t>
+          <t>-8,93; 4,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 0,52</t>
+          <t>-10,85; 0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,57</t>
+          <t>-0,84; 8,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,06</t>
+          <t>-2,57; 6,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,15</t>
+          <t>-5,37; 2,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 34,26</t>
+          <t>-1,53; 34,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 33,83</t>
+          <t>-1,3; 33,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 22,16</t>
+          <t>-9,29; 22,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 16,01</t>
+          <t>-9,08; 16,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 7,22</t>
+          <t>-15,75; 8,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 1,36</t>
+          <t>-19,11; 1,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 19,73</t>
+          <t>-1,85; 19,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 14,04</t>
+          <t>-5,4; 14,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 7,3</t>
+          <t>-11,19; 6,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,24</t>
+          <t>3,23; 8,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,27</t>
+          <t>2,09; 7,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -0,65</t>
+          <t>-14,13; -0,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,0</t>
+          <t>5,04; 10,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,99</t>
+          <t>-1,79; 3,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 9,72</t>
+          <t>-4,34; 8,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,51</t>
+          <t>4,91; 8,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,42</t>
+          <t>1,09; 4,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 2,63</t>
+          <t>-7,16; 1,82</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,17; 19,58</t>
+          <t>7,23; 19,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,29</t>
+          <t>4,49; 17,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -1,62</t>
+          <t>-32,55; -1,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,2; 18,75</t>
+          <t>9,1; 19,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,73</t>
+          <t>-3,25; 5,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 18,24</t>
+          <t>-7,96; 15,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,73</t>
+          <t>9,87; 17,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,26</t>
+          <t>2,18; 9,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 5,53</t>
+          <t>-14,81; 3,72</t>
         </is>
       </c>
     </row>
